--- a/data/pca/factorExposure/factorExposure_2010-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-27.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01472885282601286</v>
+        <v>-0.0163890963653157</v>
       </c>
       <c r="C2">
-        <v>0.0007706324441370729</v>
+        <v>-0.0008155457917106291</v>
       </c>
       <c r="D2">
-        <v>-0.009310144219687112</v>
+        <v>0.007435148712391405</v>
       </c>
       <c r="E2">
-        <v>0.02166843269377161</v>
+        <v>-0.002327839902324743</v>
       </c>
       <c r="F2">
-        <v>-0.0460356556861494</v>
+        <v>-0.01181307490918847</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1158232052374459</v>
+        <v>-0.09639650657541925</v>
       </c>
       <c r="C4">
-        <v>0.08052897299099079</v>
+        <v>-0.01866255238595015</v>
       </c>
       <c r="D4">
-        <v>-0.007078859498057654</v>
+        <v>0.07392486579781454</v>
       </c>
       <c r="E4">
-        <v>0.1600447361407023</v>
+        <v>0.026961848457786</v>
       </c>
       <c r="F4">
-        <v>-0.01770226981682984</v>
+        <v>0.04072637382379604</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.127419907072988</v>
+        <v>-0.1493934065896835</v>
       </c>
       <c r="C6">
-        <v>0.05159462572533861</v>
+        <v>-0.02411530043718435</v>
       </c>
       <c r="D6">
-        <v>0.005299234961486593</v>
+        <v>-0.01654713552517084</v>
       </c>
       <c r="E6">
-        <v>0.03642868105412576</v>
+        <v>0.0119139754517772</v>
       </c>
       <c r="F6">
-        <v>0.04877716225983765</v>
+        <v>0.03981475432091262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07021619655562474</v>
+        <v>-0.06315512917162595</v>
       </c>
       <c r="C7">
-        <v>0.08766125141053276</v>
+        <v>-0.001017609708350285</v>
       </c>
       <c r="D7">
-        <v>-0.006850839743364797</v>
+        <v>0.05056647263457212</v>
       </c>
       <c r="E7">
-        <v>0.02148968706682249</v>
+        <v>0.01608597593890579</v>
       </c>
       <c r="F7">
-        <v>-0.0125598698436916</v>
+        <v>0.05792660850308361</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04001760453910869</v>
+        <v>-0.06090038261321219</v>
       </c>
       <c r="C8">
-        <v>0.006915439559703652</v>
+        <v>0.01253749378289832</v>
       </c>
       <c r="D8">
-        <v>-0.006589455884845203</v>
+        <v>0.02557336869835205</v>
       </c>
       <c r="E8">
-        <v>0.1136493959856174</v>
+        <v>0.008609937706214576</v>
       </c>
       <c r="F8">
-        <v>-0.03498708195895286</v>
+        <v>-0.02210432543993037</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09033990311830575</v>
+        <v>-0.07463623235147419</v>
       </c>
       <c r="C9">
-        <v>0.06166265617357319</v>
+        <v>-0.01551276744275811</v>
       </c>
       <c r="D9">
-        <v>0.01228431887734387</v>
+        <v>0.07141189939642151</v>
       </c>
       <c r="E9">
-        <v>0.1372038826983986</v>
+        <v>0.01952342119214477</v>
       </c>
       <c r="F9">
-        <v>0.01160557577464972</v>
+        <v>0.06196083810134875</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1266416310246901</v>
+        <v>-0.09031012347076958</v>
       </c>
       <c r="C10">
-        <v>-0.1852182914939657</v>
+        <v>-0.01223715345067227</v>
       </c>
       <c r="D10">
-        <v>-0.01527840471395506</v>
+        <v>-0.1725471196547421</v>
       </c>
       <c r="E10">
-        <v>-0.06031728026893314</v>
+        <v>-0.03492098941896138</v>
       </c>
       <c r="F10">
-        <v>0.03162004473745198</v>
+        <v>-0.0508623981854778</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06824832654043941</v>
+        <v>-0.08978089792529169</v>
       </c>
       <c r="C11">
-        <v>0.06122260725019822</v>
+        <v>-0.01469709227664412</v>
       </c>
       <c r="D11">
-        <v>0.04199422984031359</v>
+        <v>0.1017697659947466</v>
       </c>
       <c r="E11">
-        <v>0.1080904545848584</v>
+        <v>0.04000655075731117</v>
       </c>
       <c r="F11">
-        <v>0.01048652114355644</v>
+        <v>0.02842915367853275</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07398511717113716</v>
+        <v>-0.09541171810359994</v>
       </c>
       <c r="C12">
-        <v>0.06922522682762333</v>
+        <v>-0.01237407386705299</v>
       </c>
       <c r="D12">
-        <v>0.04916298431007338</v>
+        <v>0.1059928211552933</v>
       </c>
       <c r="E12">
-        <v>0.1267904151196944</v>
+        <v>0.03767063487631377</v>
       </c>
       <c r="F12">
-        <v>0.01951013759763579</v>
+        <v>0.03214039541609692</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04854175680109463</v>
+        <v>-0.04484501399775281</v>
       </c>
       <c r="C13">
-        <v>0.03929574846083979</v>
+        <v>-0.004834497665151294</v>
       </c>
       <c r="D13">
-        <v>-0.02293362268775358</v>
+        <v>0.03186813252478086</v>
       </c>
       <c r="E13">
-        <v>0.0634113949817451</v>
+        <v>-0.01592488404010689</v>
       </c>
       <c r="F13">
-        <v>-0.01886622376325273</v>
+        <v>0.02120802645207932</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04581685686190066</v>
+        <v>-0.02261464181861017</v>
       </c>
       <c r="C14">
-        <v>0.03339771656588418</v>
+        <v>-0.01527078052868214</v>
       </c>
       <c r="D14">
-        <v>0.01106264040294768</v>
+        <v>0.02658299302522737</v>
       </c>
       <c r="E14">
-        <v>0.05966116671004656</v>
+        <v>0.01541376253307257</v>
       </c>
       <c r="F14">
-        <v>0.00948840975973224</v>
+        <v>0.0264087433470648</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03074478923560535</v>
+        <v>-0.03377570442350411</v>
       </c>
       <c r="C15">
-        <v>0.01764705994373691</v>
+        <v>-0.006598503432374354</v>
       </c>
       <c r="D15">
-        <v>-0.06395762675910316</v>
+        <v>0.03389410978528583</v>
       </c>
       <c r="E15">
-        <v>0.01056188555548507</v>
+        <v>0.00521427709287342</v>
       </c>
       <c r="F15">
-        <v>-0.01603938755571288</v>
+        <v>0.03407579852082467</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07918488698625453</v>
+        <v>-0.0776915593088934</v>
       </c>
       <c r="C16">
-        <v>0.07720613836073477</v>
+        <v>-0.006537957457518564</v>
       </c>
       <c r="D16">
-        <v>0.03673726200353769</v>
+        <v>0.1043049044885819</v>
       </c>
       <c r="E16">
-        <v>0.1068751562420261</v>
+        <v>0.05570341751480037</v>
       </c>
       <c r="F16">
-        <v>0.02329114543135431</v>
+        <v>0.03633744495043273</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01583920567735364</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004186222111374916</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02553966183455435</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01022494069702831</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.03136932718359361</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04309918647358558</v>
+        <v>-0.06351406868336679</v>
       </c>
       <c r="C20">
-        <v>0.02569106318383928</v>
+        <v>-0.004075122315377959</v>
       </c>
       <c r="D20">
-        <v>-0.02943147674200776</v>
+        <v>0.05877482546103206</v>
       </c>
       <c r="E20">
-        <v>0.06166761184412247</v>
+        <v>0.04781079991438586</v>
       </c>
       <c r="F20">
-        <v>0.01302950302191642</v>
+        <v>0.03256776531424193</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03268976275618534</v>
+        <v>-0.03927808120735597</v>
       </c>
       <c r="C21">
-        <v>0.01826318002314597</v>
+        <v>-0.008564913171084619</v>
       </c>
       <c r="D21">
-        <v>0.008807725232239893</v>
+        <v>0.030553289843713</v>
       </c>
       <c r="E21">
-        <v>0.05148797118851352</v>
+        <v>-0.01624801578077875</v>
       </c>
       <c r="F21">
-        <v>0.001636024395612919</v>
+        <v>-0.01637206767800243</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05093966165354138</v>
+        <v>-0.0426812831359545</v>
       </c>
       <c r="C22">
-        <v>0.01392740465592899</v>
+        <v>-0.0007645266114610575</v>
       </c>
       <c r="D22">
-        <v>-0.6562975450092601</v>
+        <v>-0.002453324941028653</v>
       </c>
       <c r="E22">
-        <v>-0.03135772466197081</v>
+        <v>0.03597983414769691</v>
       </c>
       <c r="F22">
-        <v>0.06689199201920452</v>
+        <v>-0.02661886115206635</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0515278201263276</v>
+        <v>-0.04271905217240572</v>
       </c>
       <c r="C23">
-        <v>0.01504278568443229</v>
+        <v>-0.0007877009994549822</v>
       </c>
       <c r="D23">
-        <v>-0.6584933805802116</v>
+        <v>-0.002273504056710147</v>
       </c>
       <c r="E23">
-        <v>-0.02579113094690072</v>
+        <v>0.03634604471695195</v>
       </c>
       <c r="F23">
-        <v>0.06616102385314009</v>
+        <v>-0.02603501275821767</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07708614840281303</v>
+        <v>-0.08301818674363354</v>
       </c>
       <c r="C24">
-        <v>0.07312812409875498</v>
+        <v>-0.006337456183610527</v>
       </c>
       <c r="D24">
-        <v>0.02910614241887925</v>
+        <v>0.107619162284579</v>
       </c>
       <c r="E24">
-        <v>0.1104792219737676</v>
+        <v>0.04387391432515765</v>
       </c>
       <c r="F24">
-        <v>0.02123110455122665</v>
+        <v>0.02885761504060531</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07628154179437109</v>
+        <v>-0.0875689333261639</v>
       </c>
       <c r="C25">
-        <v>0.05481253277579499</v>
+        <v>-0.008635215469436698</v>
       </c>
       <c r="D25">
-        <v>0.04836300709537002</v>
+        <v>0.09255254242728328</v>
       </c>
       <c r="E25">
-        <v>0.1148860762058756</v>
+        <v>0.02530975284279557</v>
       </c>
       <c r="F25">
-        <v>0.02090407003026239</v>
+        <v>0.03835283227147194</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03739061626198661</v>
+        <v>-0.05764365243297001</v>
       </c>
       <c r="C26">
-        <v>0.01965095617979096</v>
+        <v>-0.01593736746670638</v>
       </c>
       <c r="D26">
-        <v>-0.01550111317549208</v>
+        <v>0.02406156961892593</v>
       </c>
       <c r="E26">
-        <v>0.07248634309371657</v>
+        <v>0.02246292607334657</v>
       </c>
       <c r="F26">
-        <v>0.0632625774312596</v>
+        <v>0.002958885606768173</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.145893713835693</v>
+        <v>-0.1356595008233464</v>
       </c>
       <c r="C28">
-        <v>-0.277293240952309</v>
+        <v>-0.009588339881879142</v>
       </c>
       <c r="D28">
-        <v>0.006983067617499395</v>
+        <v>-0.280286305463659</v>
       </c>
       <c r="E28">
-        <v>0.02053791390004316</v>
+        <v>-0.06899323279662808</v>
       </c>
       <c r="F28">
-        <v>-0.01073523836158004</v>
+        <v>0.04773011815197477</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.04274269714436511</v>
+        <v>-0.02787144287713774</v>
       </c>
       <c r="C29">
-        <v>0.03212023440347434</v>
+        <v>-0.00953308955481985</v>
       </c>
       <c r="D29">
-        <v>0.01598081455623059</v>
+        <v>0.02517548321736088</v>
       </c>
       <c r="E29">
-        <v>0.05337770161650112</v>
+        <v>0.007875390569867953</v>
       </c>
       <c r="F29">
-        <v>0.01312918404314374</v>
+        <v>-0.006552539504528906</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08685416887726834</v>
+        <v>-0.06783463096106845</v>
       </c>
       <c r="C30">
-        <v>0.05797309368602778</v>
+        <v>-0.009111071740949992</v>
       </c>
       <c r="D30">
-        <v>0.01387272558955221</v>
+        <v>0.06675324391896159</v>
       </c>
       <c r="E30">
-        <v>0.2283116565072527</v>
+        <v>0.01925361530001997</v>
       </c>
       <c r="F30">
-        <v>0.1305035535564002</v>
+        <v>0.1243992054884537</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02812814617146182</v>
+        <v>-0.04910190140869004</v>
       </c>
       <c r="C31">
-        <v>0.05401752896093572</v>
+        <v>-0.01544229836308911</v>
       </c>
       <c r="D31">
-        <v>-0.00423330815564648</v>
+        <v>0.02789139310366586</v>
       </c>
       <c r="E31">
-        <v>0.04360752950286388</v>
+        <v>0.02597938268340648</v>
       </c>
       <c r="F31">
-        <v>-0.000356264905501838</v>
+        <v>-0.002472474147547956</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06114718764308669</v>
+        <v>-0.04859496096660822</v>
       </c>
       <c r="C32">
-        <v>0.002839086821203539</v>
+        <v>-0.001406813241010231</v>
       </c>
       <c r="D32">
-        <v>0.03855687733243186</v>
+        <v>0.019929515539725</v>
       </c>
       <c r="E32">
-        <v>0.09159615293171815</v>
+        <v>0.02319922253269335</v>
       </c>
       <c r="F32">
-        <v>-0.01771164544172183</v>
+        <v>0.006536636630012794</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09172572436666314</v>
+        <v>-0.09329560444539056</v>
       </c>
       <c r="C33">
-        <v>0.06801490445544339</v>
+        <v>-0.01180937584639993</v>
       </c>
       <c r="D33">
-        <v>0.02122361700252383</v>
+        <v>0.08287620632770792</v>
       </c>
       <c r="E33">
-        <v>0.07521412105227339</v>
+        <v>0.04345660801490563</v>
       </c>
       <c r="F33">
-        <v>0.07653328065545577</v>
+        <v>0.04430455771206777</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06804630181274368</v>
+        <v>-0.07029909114021436</v>
       </c>
       <c r="C34">
-        <v>0.05844707219828935</v>
+        <v>-0.01399860759882236</v>
       </c>
       <c r="D34">
-        <v>0.04771199250174359</v>
+        <v>0.08707442061745806</v>
       </c>
       <c r="E34">
-        <v>0.09244858842927882</v>
+        <v>0.02553848343148657</v>
       </c>
       <c r="F34">
-        <v>0.02456986430124814</v>
+        <v>0.05427734256395402</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02347682553603379</v>
+        <v>-0.02426992219049963</v>
       </c>
       <c r="C35">
-        <v>0.02708159413945728</v>
+        <v>-0.002487258816635674</v>
       </c>
       <c r="D35">
-        <v>0.01027400780156291</v>
+        <v>0.009960030633636565</v>
       </c>
       <c r="E35">
-        <v>0.01611532471198789</v>
+        <v>0.01295676823600219</v>
       </c>
       <c r="F35">
-        <v>0.02685750061054121</v>
+        <v>0.01364624308166888</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.03041600618737508</v>
+        <v>-0.0268425842955318</v>
       </c>
       <c r="C36">
-        <v>0.01923096345875597</v>
+        <v>-0.007386364046292245</v>
       </c>
       <c r="D36">
-        <v>-0.01402233631315108</v>
+        <v>0.03805303512720742</v>
       </c>
       <c r="E36">
-        <v>0.07427157307582892</v>
+        <v>0.01615764304866488</v>
       </c>
       <c r="F36">
-        <v>0.0245910116596656</v>
+        <v>0.01377193158913539</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02879617945320418</v>
+        <v>-0.003359169295910973</v>
       </c>
       <c r="C38">
-        <v>0.05797490538636756</v>
+        <v>-0.0006606015035797274</v>
       </c>
       <c r="D38">
-        <v>-0.01751097741144337</v>
+        <v>0.003973391671063211</v>
       </c>
       <c r="E38">
-        <v>-0.1166876113858776</v>
+        <v>0.004787375527605719</v>
       </c>
       <c r="F38">
-        <v>0.03646641885643216</v>
+        <v>-0.003709683579856457</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09316524505608395</v>
+        <v>-0.113413181564117</v>
       </c>
       <c r="C39">
-        <v>0.07698380407708624</v>
+        <v>-0.02059723417222101</v>
       </c>
       <c r="D39">
-        <v>0.1132228491637447</v>
+        <v>0.1406211912254274</v>
       </c>
       <c r="E39">
-        <v>0.1197810184637875</v>
+        <v>0.048664305710137</v>
       </c>
       <c r="F39">
-        <v>0.06542439758858577</v>
+        <v>0.04053216661127318</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02732867369110428</v>
+        <v>-0.03739194636756142</v>
       </c>
       <c r="C40">
-        <v>0.06684056264467382</v>
+        <v>-0.008026946761186706</v>
       </c>
       <c r="D40">
-        <v>-0.01942610014201461</v>
+        <v>0.02406374929290346</v>
       </c>
       <c r="E40">
-        <v>0.08815194108920005</v>
+        <v>0.002850473002511454</v>
       </c>
       <c r="F40">
-        <v>-0.01286415598604012</v>
+        <v>-0.01451298060759026</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03117784262972014</v>
+        <v>-0.02632474756900902</v>
       </c>
       <c r="C41">
-        <v>0.02815057005148063</v>
+        <v>-0.006778861707967699</v>
       </c>
       <c r="D41">
-        <v>0.02854991840621081</v>
+        <v>0.01164898130994379</v>
       </c>
       <c r="E41">
-        <v>-0.00531864941710933</v>
+        <v>0.01137459625153234</v>
       </c>
       <c r="F41">
-        <v>0.008177707345119198</v>
+        <v>-0.01298532183180496</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04968602101842717</v>
+        <v>-0.04366982606258389</v>
       </c>
       <c r="C43">
-        <v>0.05419096043938463</v>
+        <v>-0.007450722171067755</v>
       </c>
       <c r="D43">
-        <v>-0.005996242410576842</v>
+        <v>0.02046959001869016</v>
       </c>
       <c r="E43">
-        <v>0.01234143122972645</v>
+        <v>0.02557206456709906</v>
       </c>
       <c r="F43">
-        <v>0.008891129292277894</v>
+        <v>-0.01122531250475993</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09862143474449778</v>
+        <v>-0.07577681612788227</v>
       </c>
       <c r="C44">
-        <v>0.07900051386661348</v>
+        <v>-0.0251260003586302</v>
       </c>
       <c r="D44">
-        <v>-0.05976002765946473</v>
+        <v>0.08782873599652556</v>
       </c>
       <c r="E44">
-        <v>0.1642126557037039</v>
+        <v>0.0625754636471075</v>
       </c>
       <c r="F44">
-        <v>0.00374715198293492</v>
+        <v>0.1857675258471047</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04783659315557459</v>
+        <v>-0.02492891345631573</v>
       </c>
       <c r="C46">
-        <v>0.04491948878850301</v>
+        <v>-0.004168084553484361</v>
       </c>
       <c r="D46">
-        <v>-0.03874194353745709</v>
+        <v>0.009051576807942814</v>
       </c>
       <c r="E46">
-        <v>0.02283473021254024</v>
+        <v>0.02169692569501714</v>
       </c>
       <c r="F46">
-        <v>0.01688850956250781</v>
+        <v>-0.004438317081676207</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04958368183181197</v>
+        <v>-0.05312345051076017</v>
       </c>
       <c r="C47">
-        <v>0.04668780258305796</v>
+        <v>-0.003418644111121978</v>
       </c>
       <c r="D47">
-        <v>-0.00617743478484023</v>
+        <v>0.01450665521965613</v>
       </c>
       <c r="E47">
-        <v>0.01852945552069658</v>
+        <v>0.02287095388661805</v>
       </c>
       <c r="F47">
-        <v>0.03487485261774652</v>
+        <v>-0.04679856251154747</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04617909463433731</v>
+        <v>-0.04853343623332778</v>
       </c>
       <c r="C48">
-        <v>0.01507889584234216</v>
+        <v>-0.003623577959349839</v>
       </c>
       <c r="D48">
-        <v>0.007973168583810367</v>
+        <v>0.0409927234832955</v>
       </c>
       <c r="E48">
-        <v>0.08686425595467331</v>
+        <v>-0.009538004083403761</v>
       </c>
       <c r="F48">
-        <v>0.0236980821365695</v>
+        <v>0.01972553148956658</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2358613918143611</v>
+        <v>-0.2084313838805634</v>
       </c>
       <c r="C49">
-        <v>0.06419118465400962</v>
+        <v>-0.0173552449232241</v>
       </c>
       <c r="D49">
-        <v>0.04000421785631414</v>
+        <v>-0.006988273265211805</v>
       </c>
       <c r="E49">
-        <v>-0.3093509288879265</v>
+        <v>0.04631881279362352</v>
       </c>
       <c r="F49">
-        <v>-0.02984297498798154</v>
+        <v>0.03285218055187827</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03638092229239528</v>
+        <v>-0.04896769676326719</v>
       </c>
       <c r="C50">
-        <v>0.04680267566959214</v>
+        <v>-0.01174682073266976</v>
       </c>
       <c r="D50">
-        <v>0.01112136930527923</v>
+        <v>0.02727209096024586</v>
       </c>
       <c r="E50">
-        <v>0.05573524181271761</v>
+        <v>0.02932373187306182</v>
       </c>
       <c r="F50">
-        <v>0.04802899608994958</v>
+        <v>0.005731440177523116</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03399031998186637</v>
+        <v>-0.003702769950914955</v>
       </c>
       <c r="C51">
-        <v>0.005073810707016578</v>
+        <v>-0.0008546191784649717</v>
       </c>
       <c r="D51">
-        <v>0.001183884250306375</v>
+        <v>-0.001377471868726656</v>
       </c>
       <c r="E51">
-        <v>-0.05597259483881291</v>
+        <v>0.001845044134287705</v>
       </c>
       <c r="F51">
-        <v>-0.05286717002202385</v>
+        <v>0.003964629268149865</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.005902935704866994</v>
+        <v>-0.1400006713628781</v>
       </c>
       <c r="C52">
-        <v>0.003843852191768438</v>
+        <v>-0.01237988066969778</v>
       </c>
       <c r="D52">
-        <v>0.01831272895870192</v>
+        <v>0.05432696319253057</v>
       </c>
       <c r="E52">
-        <v>0.01632855804432362</v>
+        <v>0.01338300641542053</v>
       </c>
       <c r="F52">
-        <v>-0.02663696401149602</v>
+        <v>0.02871566645415307</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1440203655063527</v>
+        <v>-0.1714574627239085</v>
       </c>
       <c r="C53">
-        <v>0.0602168927510636</v>
+        <v>-0.01504600688580566</v>
       </c>
       <c r="D53">
-        <v>-0.008037169677738747</v>
+        <v>0.02275676558001754</v>
       </c>
       <c r="E53">
-        <v>-0.09188961862483837</v>
+        <v>0.03878090432885405</v>
       </c>
       <c r="F53">
-        <v>0.02066517601843186</v>
+        <v>0.05590103845128971</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.06044633774745128</v>
+        <v>-0.02217785863649605</v>
       </c>
       <c r="C54">
-        <v>0.02917117440387025</v>
+        <v>-0.01304743417135487</v>
       </c>
       <c r="D54">
-        <v>-0.007485052569914236</v>
+        <v>0.02783387200894598</v>
       </c>
       <c r="E54">
-        <v>0.1418338257034237</v>
+        <v>0.01365064717992748</v>
       </c>
       <c r="F54">
-        <v>0.0161939814602777</v>
+        <v>0.002170436657501043</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0836487696608573</v>
+        <v>-0.1136976029508877</v>
       </c>
       <c r="C55">
-        <v>0.05374682925787069</v>
+        <v>-0.0143179411830881</v>
       </c>
       <c r="D55">
-        <v>0.03310447291159831</v>
+        <v>0.01995977830224059</v>
       </c>
       <c r="E55">
-        <v>-0.01699597424492364</v>
+        <v>0.02927942838153691</v>
       </c>
       <c r="F55">
-        <v>-4.333652831476189e-05</v>
+        <v>0.04708555325609633</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.131711277601532</v>
+        <v>-0.1757257826211987</v>
       </c>
       <c r="C56">
-        <v>0.09055775087739154</v>
+        <v>-0.01227888076587047</v>
       </c>
       <c r="D56">
-        <v>0.01214278829232177</v>
+        <v>0.02262571343032115</v>
       </c>
       <c r="E56">
-        <v>-0.04039809320635968</v>
+        <v>0.04303707593847647</v>
       </c>
       <c r="F56">
-        <v>0.02379996526293662</v>
+        <v>0.02435237412546457</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0349916714149844</v>
+        <v>-0.0473133988772727</v>
       </c>
       <c r="C58">
-        <v>0.03157704007288353</v>
+        <v>-0.004134694156929308</v>
       </c>
       <c r="D58">
-        <v>-0.03348209596795539</v>
+        <v>0.0574473397275885</v>
       </c>
       <c r="E58">
-        <v>0.03659174356401242</v>
+        <v>0.01209474488200401</v>
       </c>
       <c r="F58">
-        <v>0.03408269360744319</v>
+        <v>-0.04294063507131152</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2148905381760866</v>
+        <v>-0.1691140208754978</v>
       </c>
       <c r="C59">
-        <v>-0.2432775216285037</v>
+        <v>-0.01132223493438287</v>
       </c>
       <c r="D59">
-        <v>0.04906834549380605</v>
+        <v>-0.2326261280133703</v>
       </c>
       <c r="E59">
-        <v>-0.009089106479357659</v>
+        <v>-0.04583473497907283</v>
       </c>
       <c r="F59">
-        <v>-0.07363485340557094</v>
+        <v>-0.02980474022884843</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2328824048088745</v>
+        <v>-0.2395804666411727</v>
       </c>
       <c r="C60">
-        <v>0.1328442306297963</v>
+        <v>0.004305830727948876</v>
       </c>
       <c r="D60">
-        <v>0.06660482992610703</v>
+        <v>0.05446563036892187</v>
       </c>
       <c r="E60">
-        <v>-0.1397094786536101</v>
+        <v>0.01393367131441742</v>
       </c>
       <c r="F60">
-        <v>-0.02326238054024061</v>
+        <v>-0.05091219246825187</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09020109877397353</v>
+        <v>-0.08799190996009039</v>
       </c>
       <c r="C61">
-        <v>0.06510682484135236</v>
+        <v>-0.01578893988780007</v>
       </c>
       <c r="D61">
-        <v>0.06599064301751272</v>
+        <v>0.09901150806592637</v>
       </c>
       <c r="E61">
-        <v>0.1240703144681058</v>
+        <v>0.03176896272221245</v>
       </c>
       <c r="F61">
-        <v>0.02231634748917158</v>
+        <v>0.02594512761203437</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1345763666530368</v>
+        <v>-0.1682904681478278</v>
       </c>
       <c r="C62">
-        <v>0.08275992742912945</v>
+        <v>-0.01633336785140321</v>
       </c>
       <c r="D62">
-        <v>0.007461660860852007</v>
+        <v>0.01999633731765426</v>
       </c>
       <c r="E62">
-        <v>-0.04828848246544137</v>
+        <v>0.03673419426836119</v>
       </c>
       <c r="F62">
-        <v>0.07335550329019967</v>
+        <v>0.01148162590235802</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04368382058621954</v>
+        <v>-0.04355923590633529</v>
       </c>
       <c r="C63">
-        <v>0.0179822270205328</v>
+        <v>-0.004832016776422197</v>
       </c>
       <c r="D63">
-        <v>0.006020043178728188</v>
+        <v>0.04275836096172966</v>
       </c>
       <c r="E63">
-        <v>0.062618072322028</v>
+        <v>0.01267881029812069</v>
       </c>
       <c r="F63">
-        <v>0.04311849152256532</v>
+        <v>0.01351118774028989</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09966200393843769</v>
+        <v>-0.1122992139074524</v>
       </c>
       <c r="C64">
-        <v>0.05852463771216709</v>
+        <v>-0.01235498736121307</v>
       </c>
       <c r="D64">
-        <v>0.005054037798588296</v>
+        <v>0.03790690525209999</v>
       </c>
       <c r="E64">
-        <v>0.04753938546176452</v>
+        <v>0.01923005832686387</v>
       </c>
       <c r="F64">
-        <v>-0.002063562365203688</v>
+        <v>0.01556129017344899</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1191072180797638</v>
+        <v>-0.1401771483427543</v>
       </c>
       <c r="C65">
-        <v>0.0277120099754812</v>
+        <v>-0.030207654931436</v>
       </c>
       <c r="D65">
-        <v>0.02404786796304194</v>
+        <v>-0.04113755128039949</v>
       </c>
       <c r="E65">
-        <v>0.05942383561543656</v>
+        <v>0.005516460572394476</v>
       </c>
       <c r="F65">
-        <v>0.07179484883289639</v>
+        <v>0.04172683904902494</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1073299342187271</v>
+        <v>-0.1362147944564332</v>
       </c>
       <c r="C66">
-        <v>0.1128063237262946</v>
+        <v>-0.01824085670525376</v>
       </c>
       <c r="D66">
-        <v>0.1134326202222326</v>
+        <v>0.126802127522802</v>
       </c>
       <c r="E66">
-        <v>0.09860775950536735</v>
+        <v>0.05903005320352994</v>
       </c>
       <c r="F66">
-        <v>0.09581453156908143</v>
+        <v>0.04420761015503701</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0861274828357579</v>
+        <v>-0.06616560737920149</v>
       </c>
       <c r="C67">
-        <v>0.07934262774023164</v>
+        <v>-0.004486194637995549</v>
       </c>
       <c r="D67">
-        <v>-0.02245744562663772</v>
+        <v>0.05736799655859671</v>
       </c>
       <c r="E67">
-        <v>-0.09246088005405809</v>
+        <v>0.02028885903446634</v>
       </c>
       <c r="F67">
-        <v>0.001661119205308149</v>
+        <v>-0.04299782315683207</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1282673392547553</v>
+        <v>-0.1097990762380983</v>
       </c>
       <c r="C68">
-        <v>-0.2745928526874281</v>
+        <v>-0.02043180157375411</v>
       </c>
       <c r="D68">
-        <v>0.02201370716041593</v>
+        <v>-0.2777341746620587</v>
       </c>
       <c r="E68">
-        <v>0.02862792636977987</v>
+        <v>-0.08624827421040367</v>
       </c>
       <c r="F68">
-        <v>0.02081486008338708</v>
+        <v>0.0508134143425038</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04230381638853414</v>
+        <v>-0.04075516166327089</v>
       </c>
       <c r="C69">
-        <v>0.02133345333032852</v>
+        <v>-0.001093579032772879</v>
       </c>
       <c r="D69">
-        <v>-0.01256731943989405</v>
+        <v>0.009818428706540176</v>
       </c>
       <c r="E69">
-        <v>-0.01511327563863058</v>
+        <v>0.02581865591466835</v>
       </c>
       <c r="F69">
-        <v>0.05695581623654907</v>
+        <v>-0.01692906166824229</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06595416031510003</v>
+        <v>-0.06619069222821387</v>
       </c>
       <c r="C70">
-        <v>0.05875622425671324</v>
+        <v>0.02670884379245692</v>
       </c>
       <c r="D70">
-        <v>0.05953467728495574</v>
+        <v>0.001161726700225174</v>
       </c>
       <c r="E70">
-        <v>-0.02692807228187973</v>
+        <v>-0.04670751345078489</v>
       </c>
       <c r="F70">
-        <v>0.01895201116740382</v>
+        <v>-0.3476516450171684</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1443004871139029</v>
+        <v>-0.1281709228565671</v>
       </c>
       <c r="C71">
-        <v>-0.2777822443734146</v>
+        <v>-0.02367080269219029</v>
       </c>
       <c r="D71">
-        <v>0.01309596194731816</v>
+        <v>-0.2922400301804741</v>
       </c>
       <c r="E71">
-        <v>0.04206560900334998</v>
+        <v>-0.09476682849026043</v>
       </c>
       <c r="F71">
-        <v>0.01609426710620582</v>
+        <v>0.05290404128773743</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1262140263621957</v>
+        <v>-0.1381699548550191</v>
       </c>
       <c r="C72">
-        <v>0.03472243596184982</v>
+        <v>-0.02402431755421777</v>
       </c>
       <c r="D72">
-        <v>0.01520276146943062</v>
+        <v>0.01235663545713594</v>
       </c>
       <c r="E72">
-        <v>0.01546351991658116</v>
+        <v>0.04394036937604145</v>
       </c>
       <c r="F72">
-        <v>0.09122103989284902</v>
+        <v>0.02628299148103649</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2101730554274729</v>
+        <v>-0.2104806059621152</v>
       </c>
       <c r="C73">
-        <v>0.1333036746129296</v>
+        <v>-0.01185407470167262</v>
       </c>
       <c r="D73">
-        <v>0.1228439433670953</v>
+        <v>0.02728046077199201</v>
       </c>
       <c r="E73">
-        <v>-0.4618650042306514</v>
+        <v>0.07490243566989406</v>
       </c>
       <c r="F73">
-        <v>-0.1399684155370817</v>
+        <v>0.021424012970625</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08343797230857729</v>
+        <v>-0.09358460666203099</v>
       </c>
       <c r="C74">
-        <v>0.08545166207417276</v>
+        <v>-0.01161506402634445</v>
       </c>
       <c r="D74">
-        <v>0.002847712733004183</v>
+        <v>0.030832038768782</v>
       </c>
       <c r="E74">
-        <v>-0.05157849007100255</v>
+        <v>0.05217113722248066</v>
       </c>
       <c r="F74">
-        <v>0.04039853588396184</v>
+        <v>0.03993774978680029</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08546683149799256</v>
+        <v>-0.1294937870547424</v>
       </c>
       <c r="C75">
-        <v>0.06317665933707217</v>
+        <v>-0.02577994228720585</v>
       </c>
       <c r="D75">
-        <v>0.0035233456702027</v>
+        <v>0.04064563290965591</v>
       </c>
       <c r="E75">
-        <v>-0.01608695086831024</v>
+        <v>0.0585453392055709</v>
       </c>
       <c r="F75">
-        <v>0.02025287300061227</v>
+        <v>0.004600629774408298</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08480858560024727</v>
+        <v>-0.009627106592854222</v>
       </c>
       <c r="C76">
-        <v>0.08321841427522358</v>
+        <v>-0.002157988161895948</v>
       </c>
       <c r="D76">
-        <v>-0.001086583629726045</v>
+        <v>0.00454431493177042</v>
       </c>
       <c r="E76">
-        <v>-0.06048704027342227</v>
+        <v>0.01003565479902322</v>
       </c>
       <c r="F76">
-        <v>-0.02172629676407807</v>
+        <v>0.003484958262753462</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0710149091590964</v>
+        <v>-0.08197976252984471</v>
       </c>
       <c r="C77">
-        <v>0.01117221527053853</v>
+        <v>-0.01287651171418831</v>
       </c>
       <c r="D77">
-        <v>0.04426757439855959</v>
+        <v>0.09470931455975037</v>
       </c>
       <c r="E77">
-        <v>0.2886789196305548</v>
+        <v>0.0318384720591925</v>
       </c>
       <c r="F77">
-        <v>-0.1007744028721918</v>
+        <v>0.04352018970856304</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.2060547245922363</v>
+        <v>-0.1122620538444823</v>
       </c>
       <c r="C78">
-        <v>0.1279866534686675</v>
+        <v>-0.04496937747745241</v>
       </c>
       <c r="D78">
-        <v>-0.1662646714964326</v>
+        <v>0.1163419594610772</v>
       </c>
       <c r="E78">
-        <v>0.265527257092022</v>
+        <v>0.08913360844194347</v>
       </c>
       <c r="F78">
-        <v>-0.6040893986765778</v>
+        <v>0.08397950092198339</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1281645810525664</v>
+        <v>-0.1619156968233959</v>
       </c>
       <c r="C79">
-        <v>0.08325229098633212</v>
+        <v>-0.01977515274520618</v>
       </c>
       <c r="D79">
-        <v>-0.007540021084860096</v>
+        <v>0.02590634531198795</v>
       </c>
       <c r="E79">
-        <v>-0.01351855142561848</v>
+        <v>0.04838596543608478</v>
       </c>
       <c r="F79">
-        <v>0.04607626140034976</v>
+        <v>0.003678412464782305</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04999152921579333</v>
+        <v>-0.08180783570929274</v>
       </c>
       <c r="C80">
-        <v>0.03600117326820906</v>
+        <v>0.00108632040403993</v>
       </c>
       <c r="D80">
-        <v>0.06959402500657093</v>
+        <v>0.0501034125011332</v>
       </c>
       <c r="E80">
-        <v>-0.004174137558878577</v>
+        <v>0.02396031595996055</v>
       </c>
       <c r="F80">
-        <v>-0.001309369438501731</v>
+        <v>-0.01199118571976366</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1213464151615485</v>
+        <v>-0.1216632118893713</v>
       </c>
       <c r="C81">
-        <v>0.05448426234625878</v>
+        <v>-0.02953317098072242</v>
       </c>
       <c r="D81">
-        <v>-0.01003989510909554</v>
+        <v>0.03122507907684818</v>
       </c>
       <c r="E81">
-        <v>0.0307511920009809</v>
+        <v>0.0594272439020212</v>
       </c>
       <c r="F81">
-        <v>0.09032458819572571</v>
+        <v>-0.006817823745236898</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1168866005198559</v>
+        <v>-0.1618016003271814</v>
       </c>
       <c r="C82">
-        <v>0.05888236192518556</v>
+        <v>-0.02022889304231661</v>
       </c>
       <c r="D82">
-        <v>0.001460246690509536</v>
+        <v>0.024154641015839</v>
       </c>
       <c r="E82">
-        <v>-0.03606290955553645</v>
+        <v>0.03524558677475476</v>
       </c>
       <c r="F82">
-        <v>0.07538000990424909</v>
+        <v>0.04933812867813321</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07845927902466576</v>
+        <v>-0.06803290273355969</v>
       </c>
       <c r="C83">
-        <v>0.07332312833496109</v>
+        <v>-0.004922840507291895</v>
       </c>
       <c r="D83">
-        <v>0.0002738117885069036</v>
+        <v>0.04230547747250746</v>
       </c>
       <c r="E83">
-        <v>-0.01265471576833306</v>
+        <v>0.001086398822240744</v>
       </c>
       <c r="F83">
-        <v>0.05745930554507224</v>
+        <v>-0.02944449646536675</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03385558943805066</v>
+        <v>-0.06052922177084722</v>
       </c>
       <c r="C84">
-        <v>-0.05666051745011511</v>
+        <v>-0.01218543245453014</v>
       </c>
       <c r="D84">
-        <v>0.03432525972564105</v>
+        <v>0.05758569166466605</v>
       </c>
       <c r="E84">
-        <v>0.1211859395586197</v>
+        <v>-0.003490916107051286</v>
       </c>
       <c r="F84">
-        <v>-0.1146251032069565</v>
+        <v>0.01307912630138115</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1191967973275256</v>
+        <v>-0.1370750713705368</v>
       </c>
       <c r="C85">
-        <v>0.05799333182603066</v>
+        <v>-0.02514713703397577</v>
       </c>
       <c r="D85">
-        <v>0.01010596553883395</v>
+        <v>0.0238885570386909</v>
       </c>
       <c r="E85">
-        <v>-0.03142898293532541</v>
+        <v>0.0407372373526057</v>
       </c>
       <c r="F85">
-        <v>0.05131830167063253</v>
+        <v>0.03860170160454133</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09080770865931478</v>
+        <v>-0.1000144478210614</v>
       </c>
       <c r="C86">
-        <v>0.017665619932914</v>
+        <v>0.006547833599345112</v>
       </c>
       <c r="D86">
-        <v>-0.01599098113093574</v>
+        <v>0.009584653818736544</v>
       </c>
       <c r="E86">
-        <v>0.04104003819178469</v>
+        <v>0.1281746582906287</v>
       </c>
       <c r="F86">
-        <v>-0.1408952917469153</v>
+        <v>-0.8233394433188458</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1214261507400793</v>
+        <v>-0.1028124812750752</v>
       </c>
       <c r="C87">
-        <v>0.0647861015518921</v>
+        <v>-0.02626835708662042</v>
       </c>
       <c r="D87">
-        <v>-0.01181739716032802</v>
+        <v>0.06685863309788251</v>
       </c>
       <c r="E87">
-        <v>0.06978853120348084</v>
+        <v>-0.05344496049763922</v>
       </c>
       <c r="F87">
-        <v>0.006951810303366364</v>
+        <v>0.09249814469818896</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06066688363590055</v>
+        <v>-0.06108837118901762</v>
       </c>
       <c r="C88">
-        <v>0.06699695911032241</v>
+        <v>-0.00396157635318164</v>
       </c>
       <c r="D88">
-        <v>0.03715204461499011</v>
+        <v>0.05687943875150977</v>
       </c>
       <c r="E88">
-        <v>0.01229827731337567</v>
+        <v>0.02367613105341453</v>
       </c>
       <c r="F88">
-        <v>0.01830350229827871</v>
+        <v>0.007542812479785957</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2381373910290351</v>
+        <v>-0.1315161259773253</v>
       </c>
       <c r="C89">
-        <v>-0.3694075441164841</v>
+        <v>-0.003324405955817745</v>
       </c>
       <c r="D89">
-        <v>-0.03711538085497674</v>
+        <v>-0.2841935048378934</v>
       </c>
       <c r="E89">
-        <v>-0.01752293777591812</v>
+        <v>-0.09401729577508494</v>
       </c>
       <c r="F89">
-        <v>-0.03922797548688974</v>
+        <v>0.03611575109469528</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1553032284964535</v>
+        <v>-0.1396107654214198</v>
       </c>
       <c r="C90">
-        <v>-0.2554002374141909</v>
+        <v>-0.01995898476612293</v>
       </c>
       <c r="D90">
-        <v>0.01750739736670876</v>
+        <v>-0.2796602500199832</v>
       </c>
       <c r="E90">
-        <v>0.007035391005621384</v>
+        <v>-0.1076417921959821</v>
       </c>
       <c r="F90">
-        <v>-0.0101847365281448</v>
+        <v>0.04045026453404649</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07001152264305385</v>
+        <v>-0.1157374570315605</v>
       </c>
       <c r="C91">
-        <v>0.06027165284728812</v>
+        <v>-0.01572976587954086</v>
       </c>
       <c r="D91">
-        <v>-0.01215328729373022</v>
+        <v>0.006391345598539255</v>
       </c>
       <c r="E91">
-        <v>-0.001197171627834885</v>
+        <v>0.0592141898097497</v>
       </c>
       <c r="F91">
-        <v>-0.006052933365469249</v>
+        <v>-0.03226098335062657</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1736708474824886</v>
+        <v>-0.1429903548457023</v>
       </c>
       <c r="C92">
-        <v>-0.2956050214818138</v>
+        <v>-0.01060093961574331</v>
       </c>
       <c r="D92">
-        <v>-0.01874205641002786</v>
+        <v>-0.3147253724212474</v>
       </c>
       <c r="E92">
-        <v>0.03221345895272429</v>
+        <v>-0.1026891968621382</v>
       </c>
       <c r="F92">
-        <v>-0.03746970235773203</v>
+        <v>0.03245913606209886</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1721217307192139</v>
+        <v>-0.1439867490010811</v>
       </c>
       <c r="C93">
-        <v>-0.304084691738093</v>
+        <v>-0.01587102544341661</v>
       </c>
       <c r="D93">
-        <v>0.0484749927773824</v>
+        <v>-0.280641430632268</v>
       </c>
       <c r="E93">
-        <v>0.009108592423752089</v>
+        <v>-0.07180625885050232</v>
       </c>
       <c r="F93">
-        <v>0.03945048664817453</v>
+        <v>0.03107984077651293</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1143090517666474</v>
+        <v>-0.133314838071863</v>
       </c>
       <c r="C94">
-        <v>0.08127841345615398</v>
+        <v>-0.02355163203335145</v>
       </c>
       <c r="D94">
-        <v>-0.008648969849301488</v>
+        <v>0.05309147852188859</v>
       </c>
       <c r="E94">
-        <v>-0.05013720963286078</v>
+        <v>0.06188454380566768</v>
       </c>
       <c r="F94">
-        <v>0.008717842526072944</v>
+        <v>0.02322969776691855</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1506003617210564</v>
+        <v>-0.1286390436979084</v>
       </c>
       <c r="C95">
-        <v>0.0603140858963394</v>
+        <v>-0.007156538741418899</v>
       </c>
       <c r="D95">
-        <v>-0.01244347229598388</v>
+        <v>0.08205735404963618</v>
       </c>
       <c r="E95">
-        <v>0.03960535704015791</v>
+        <v>0.03956885443431552</v>
       </c>
       <c r="F95">
-        <v>-0.02656933306221947</v>
+        <v>-0.01119777470097473</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09500140478521478</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9894228285683191</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.009609178928386912</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06031825828993255</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05110081502553512</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1123998621785757</v>
+        <v>-0.1865633145683778</v>
       </c>
       <c r="C97">
-        <v>-0.0161652417931614</v>
+        <v>0.01318314534513479</v>
       </c>
       <c r="D97">
-        <v>-0.0317815735347331</v>
+        <v>-0.008103698154124598</v>
       </c>
       <c r="E97">
-        <v>0.08139679938336186</v>
+        <v>0.01231483385432105</v>
       </c>
       <c r="F97">
-        <v>0.6589955839339151</v>
+        <v>-0.1710977071973421</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2585051639456774</v>
+        <v>-0.2075328228781381</v>
       </c>
       <c r="C98">
-        <v>0.125757422191765</v>
+        <v>-0.007717739324664422</v>
       </c>
       <c r="D98">
-        <v>-0.04885919269497268</v>
+        <v>0.01633077103670616</v>
       </c>
       <c r="E98">
-        <v>-0.2752727824927214</v>
+        <v>-0.08446184742832261</v>
       </c>
       <c r="F98">
-        <v>-0.03023318702812199</v>
+        <v>-0.1441690149858148</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07737806553754413</v>
+        <v>-0.05866410955155173</v>
       </c>
       <c r="C99">
-        <v>0.05687780360732382</v>
+        <v>0.002836095024229604</v>
       </c>
       <c r="D99">
-        <v>-0.01511441717667615</v>
+        <v>0.02893692463736243</v>
       </c>
       <c r="E99">
-        <v>-0.04082868861433783</v>
+        <v>0.02250165798163502</v>
       </c>
       <c r="F99">
-        <v>-0.02543134272880297</v>
+        <v>0.004801966359206432</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1227834666311127</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04640454643688602</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3279808434831602</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9055711398842906</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05585413323840802</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04288753074108717</v>
+        <v>-0.02774605334706742</v>
       </c>
       <c r="C101">
-        <v>0.03161834058961617</v>
+        <v>-0.009446052103822241</v>
       </c>
       <c r="D101">
-        <v>0.01606740754459538</v>
+        <v>0.02483184198977431</v>
       </c>
       <c r="E101">
-        <v>0.05181144707111224</v>
+        <v>0.00804330170213908</v>
       </c>
       <c r="F101">
-        <v>0.01034204555892349</v>
+        <v>-0.008631816186034027</v>
       </c>
     </row>
     <row r="102" spans="1:6">
